--- a/기능정의서 회원쪽.xlsx
+++ b/기능정의서 회원쪽.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>대분류</t>
   </si>
@@ -30,6 +30,242 @@
     <t>설명</t>
   </si>
   <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니담기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 정해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘기할 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;탈퇴 삭제 or 토글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매순, 관심순(위시리스트) 정렬 / 전체검색, 품목별 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보수정(주소지, 전화번호, 이름 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품내용+q&amp;a+리뷰 화면에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭후 별도의 리스트에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문글 작성, 비밀글 여부 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 물품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 물품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달할 주소지 입력후 주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품리뷰 등록, 별점 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일인증?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 수령 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 조건 조회, 적립금 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객문의 게시판, 답변, 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-mail상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 메신저?쪽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 실시간 상담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담글 등록, 파일첨부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매확정하기(배송완료후 7일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불처리(배송완료후 7일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addWish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리시트빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭후 리스트에서 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,19 +278,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관련</t>
+    <t>회원로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,199 +290,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위시리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니담기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니빼기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품목 정해야함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얘기할 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;탈퇴 삭제 or 토글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매순, 관심순(위시리스트) 정렬 / 전체검색, 품목별 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보수정(주소지, 전화번호, 이름 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품내용+q&amp;a+리뷰 화면에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭후 별도의 리스트에 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문글 작성, 비밀글 여부 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 물품 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 물품 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배달할 주소지 입력후 주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품리뷰 등록, 별점 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일인증?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰수령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 수령 받기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급 조건 조회, 적립금 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객문의 게시판, 답변, 페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e-mail상담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1 메신저?쪽지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1 실시간 상담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담글 등록, 파일첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매확정하기(배송완료후 7일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불처리(배송완료후 7일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발송준비, 택배사전달,도착예정,배송완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 관리</t>
+    <t>회원정보 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getproduct, getQna, getReview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeQna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeWish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매창(주소지 출력, 장바구니 출력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAddrList,getCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 물품 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeCoupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">deleteCart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">deleteStock, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deleteCoupon, downPoint, upPoint</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCustomerInquiryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEmailInquiry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +441,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -310,13 +488,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +538,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,26 +856,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H27"/>
+  <dimension ref="C5:I31"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="F4:G4"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="38.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9">
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -663,260 +891,382 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+      <c r="H6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="H13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="H14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="H25" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="D10:D31"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -926,7 +1276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,7 +1289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
